--- a/Budget data/Berkeley Budget.xlsx
+++ b/Budget data/Berkeley Budget.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="0" windowWidth="27860" windowHeight="15740" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="25360" windowHeight="15660" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="109">
   <si>
     <t>General Fund: Revenues</t>
   </si>
@@ -484,7 +484,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="101">
+  <cellStyleXfs count="269">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -586,8 +586,176 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -619,8 +787,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="101">
+  <cellStyles count="269">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -671,6 +840,90 @@
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -721,6 +974,90 @@
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1052,8 +1389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M217"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M107"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1156,9 +1493,15 @@
       <c r="H3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3"/>
+      <c r="I3" s="2">
+        <v>984051</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1032227</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1052122</v>
+      </c>
       <c r="L3" s="2">
         <v>1070929</v>
       </c>
@@ -1188,9 +1531,15 @@
       <c r="H4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="3"/>
+      <c r="I4" s="2">
+        <v>3110933</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3226626</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2844356</v>
+      </c>
       <c r="L4" s="2">
         <v>3050030</v>
       </c>
@@ -1220,9 +1569,15 @@
       <c r="H5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="3"/>
+      <c r="I5" s="2">
+        <v>9542084</v>
+      </c>
+      <c r="J5" s="2">
+        <v>9762684</v>
+      </c>
+      <c r="K5" s="3">
+        <v>9948439</v>
+      </c>
       <c r="L5" s="2">
         <v>11826449</v>
       </c>
@@ -1252,9 +1607,15 @@
       <c r="H6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="3"/>
+      <c r="I6" s="2">
+        <v>969769</v>
+      </c>
+      <c r="J6" s="2">
+        <v>947947</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1005000</v>
+      </c>
       <c r="L6" s="2">
         <v>1005000</v>
       </c>
@@ -1284,9 +1645,15 @@
       <c r="H7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="3"/>
+      <c r="I7" s="2">
+        <v>3917791</v>
+      </c>
+      <c r="J7" s="2">
+        <v>4130013</v>
+      </c>
+      <c r="K7" s="3">
+        <v>4186198</v>
+      </c>
       <c r="L7" s="2">
         <v>4256305</v>
       </c>
@@ -1316,9 +1683,15 @@
       <c r="H8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="3"/>
+      <c r="I8" s="2">
+        <v>2052466</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2065845</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2023244</v>
+      </c>
       <c r="L8" s="2">
         <v>1866961</v>
       </c>
@@ -1348,9 +1721,15 @@
       <c r="H9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="3"/>
+      <c r="I9" s="2">
+        <v>52888</v>
+      </c>
+      <c r="J9" s="2">
+        <v>28164</v>
+      </c>
+      <c r="K9" s="3">
+        <v>35000</v>
+      </c>
       <c r="L9" s="2">
         <v>35000</v>
       </c>
@@ -1380,11 +1759,20 @@
       <c r="H10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="2" t="s">
-        <v>101</v>
+      <c r="I10" s="2">
+        <v>4613</v>
+      </c>
+      <c r="J10" s="2">
+        <v>10</v>
+      </c>
+      <c r="K10" s="25">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1409,9 +1797,15 @@
       <c r="H11" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="3"/>
+      <c r="I11" s="2">
+        <v>226933</v>
+      </c>
+      <c r="J11" s="2">
+        <v>226450</v>
+      </c>
+      <c r="K11" s="3">
+        <v>263000</v>
+      </c>
       <c r="L11" s="2">
         <v>263000</v>
       </c>
@@ -1441,9 +1835,15 @@
       <c r="H12" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="3"/>
+      <c r="I12" s="2">
+        <v>165672</v>
+      </c>
+      <c r="J12" s="2">
+        <v>164558</v>
+      </c>
+      <c r="K12" s="3">
+        <v>168550</v>
+      </c>
       <c r="L12" s="2">
         <v>168550</v>
       </c>
@@ -1473,9 +1873,15 @@
       <c r="H13" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="3"/>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>488864</v>
+      </c>
+      <c r="K13" s="3">
+        <v>496424</v>
+      </c>
       <c r="L13" s="2">
         <v>546823</v>
       </c>
@@ -1510,9 +1916,15 @@
       <c r="H14" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="3"/>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>30000</v>
+      </c>
       <c r="L14" s="2">
         <v>30000</v>
       </c>
@@ -1544,15 +1956,15 @@
       </c>
       <c r="I15" s="23">
         <f>SUM(I3:I14)</f>
-        <v>0</v>
+        <v>21027200</v>
       </c>
       <c r="J15" s="23">
         <f>SUM(J3:J14)</f>
-        <v>0</v>
+        <v>22073388</v>
       </c>
       <c r="K15" s="3">
         <f>SUM(K3:K14)</f>
-        <v>0</v>
+        <v>22052333</v>
       </c>
       <c r="L15" s="23">
         <f>SUM(L3:L14)</f>
@@ -1602,7 +2014,6 @@
         <v>54</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
       <c r="K17" s="3"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1616,9 +2027,15 @@
       <c r="H18" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="3"/>
+      <c r="I18" s="2">
+        <v>33861186</v>
+      </c>
+      <c r="J18" s="2">
+        <v>34101574</v>
+      </c>
+      <c r="K18" s="3">
+        <v>36673523</v>
+      </c>
       <c r="L18" s="2">
         <v>37600783</v>
       </c>
@@ -1648,9 +2065,15 @@
       <c r="H19" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="3"/>
+      <c r="I19" s="2">
+        <v>5230735</v>
+      </c>
+      <c r="J19" s="2">
+        <v>5478724</v>
+      </c>
+      <c r="K19" s="3">
+        <v>5558716</v>
+      </c>
       <c r="L19" s="2">
         <v>5311066</v>
       </c>
@@ -1680,9 +2103,15 @@
       <c r="H20" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="3"/>
+      <c r="I20" s="2">
+        <v>13315067</v>
+      </c>
+      <c r="J20" s="2">
+        <v>13588024</v>
+      </c>
+      <c r="K20" s="3">
+        <v>12801227</v>
+      </c>
       <c r="L20" s="2">
         <v>12801227</v>
       </c>
@@ -1712,9 +2141,15 @@
       <c r="H21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="3"/>
+      <c r="I21" s="2">
+        <v>2467033</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2316216</v>
+      </c>
+      <c r="K21" s="3">
+        <v>2365140</v>
+      </c>
       <c r="L21" s="2">
         <v>2502740</v>
       </c>
@@ -1744,9 +2179,15 @@
       <c r="H22" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="3"/>
+      <c r="I22" s="2">
+        <v>577473</v>
+      </c>
+      <c r="J22" s="2">
+        <v>245868</v>
+      </c>
+      <c r="K22" s="3">
+        <v>240501</v>
+      </c>
       <c r="L22" s="2">
         <v>240501</v>
       </c>
@@ -1776,9 +2217,15 @@
       <c r="H23" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="3"/>
+      <c r="I23" s="2">
+        <v>9249750</v>
+      </c>
+      <c r="J23" s="2">
+        <v>14087031</v>
+      </c>
+      <c r="K23" s="3">
+        <v>13552248</v>
+      </c>
       <c r="L23" s="2">
         <v>12238260</v>
       </c>
@@ -1808,9 +2255,15 @@
       <c r="H24" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="3"/>
+      <c r="I24" s="2">
+        <v>3781582</v>
+      </c>
+      <c r="J24" s="2">
+        <v>3858118</v>
+      </c>
+      <c r="K24" s="3">
+        <v>3743972</v>
+      </c>
       <c r="L24" s="2">
         <v>4204428</v>
       </c>
@@ -1840,9 +2293,15 @@
       <c r="H25" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="3"/>
+      <c r="I25" s="2">
+        <v>6496735</v>
+      </c>
+      <c r="J25" s="2">
+        <v>8052253</v>
+      </c>
+      <c r="K25" s="3">
+        <v>6861311</v>
+      </c>
       <c r="L25" s="2">
         <v>9191713</v>
       </c>
@@ -1872,9 +2331,15 @@
       <c r="H26" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="3"/>
+      <c r="I26" s="2">
+        <v>835264</v>
+      </c>
+      <c r="J26" s="2">
+        <v>792597</v>
+      </c>
+      <c r="K26" s="3">
+        <v>864531</v>
+      </c>
       <c r="L26" s="2">
         <v>851868</v>
       </c>
@@ -1904,9 +2369,15 @@
       <c r="H27" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="3"/>
+      <c r="I27" s="2">
+        <v>2632711</v>
+      </c>
+      <c r="J27" s="2">
+        <v>2237128</v>
+      </c>
+      <c r="K27" s="3">
+        <v>2193961</v>
+      </c>
       <c r="L27" s="2">
         <v>2086780</v>
       </c>
@@ -1938,15 +2409,15 @@
       </c>
       <c r="I28" s="2">
         <f>SUM(I18:I27)</f>
-        <v>0</v>
+        <v>78447536</v>
       </c>
       <c r="J28" s="2">
         <f>SUM(J18:J27)</f>
-        <v>0</v>
+        <v>84757533</v>
       </c>
       <c r="K28" s="3">
         <f>SUM(K18:K27)</f>
-        <v>0</v>
+        <v>84855130</v>
       </c>
       <c r="L28" s="2">
         <f>SUM(L18:L27)</f>
@@ -2004,9 +2475,15 @@
       <c r="H30" t="s">
         <v>65</v>
       </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="3"/>
+      <c r="I30" s="2">
+        <v>7360154</v>
+      </c>
+      <c r="J30" s="2">
+        <v>6713733</v>
+      </c>
+      <c r="K30" s="3">
+        <v>6161504</v>
+      </c>
       <c r="L30" s="2">
         <v>6042504</v>
       </c>
@@ -2089,9 +2566,15 @@
       <c r="H33" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="3"/>
+      <c r="I33" s="2">
+        <v>17486</v>
+      </c>
+      <c r="J33" s="2">
+        <v>2639</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
       <c r="L33" s="2" t="s">
         <v>101</v>
       </c>
@@ -2121,9 +2604,15 @@
       <c r="H34" t="s">
         <v>68</v>
       </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="3"/>
+      <c r="I34" s="2">
+        <v>3253</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1032</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
       <c r="L34" s="2" t="s">
         <v>101</v>
       </c>
@@ -2153,9 +2642,15 @@
       <c r="H35" t="s">
         <v>69</v>
       </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="3"/>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>14975000</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
       <c r="L35" s="2" t="s">
         <v>101</v>
       </c>
@@ -2185,9 +2680,15 @@
       <c r="H36" t="s">
         <v>70</v>
       </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="3"/>
+      <c r="I36" s="2">
+        <v>952</v>
+      </c>
+      <c r="J36" s="2">
+        <v>292</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
       <c r="L36" s="2" t="s">
         <v>101</v>
       </c>
@@ -2217,9 +2718,15 @@
       <c r="H37" t="s">
         <v>71</v>
       </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="3"/>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
+        <v>103336</v>
+      </c>
       <c r="L37" s="2">
         <v>103336</v>
       </c>
@@ -2254,9 +2761,15 @@
       <c r="H38" t="s">
         <v>72</v>
       </c>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="3"/>
+      <c r="I38" s="2">
+        <v>100002</v>
+      </c>
+      <c r="J38" s="2">
+        <v>100000</v>
+      </c>
+      <c r="K38" s="3">
+        <v>100000</v>
+      </c>
       <c r="L38" s="2">
         <v>100000</v>
       </c>
@@ -2274,9 +2787,15 @@
       <c r="H39" t="s">
         <v>73</v>
       </c>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="3"/>
+      <c r="I39" s="2">
+        <v>13</v>
+      </c>
+      <c r="J39" s="2">
+        <v>4</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
       <c r="L39" s="2" t="s">
         <v>101</v>
       </c>
@@ -2296,15 +2815,15 @@
       </c>
       <c r="I40" s="2">
         <f>SUM(I33:I39)</f>
-        <v>0</v>
+        <v>121706</v>
       </c>
       <c r="J40" s="2">
         <f>SUM(J33:J39)</f>
-        <v>0</v>
+        <v>15078967</v>
       </c>
       <c r="K40" s="3">
         <f>SUM(K33:K39)</f>
-        <v>0</v>
+        <v>203336</v>
       </c>
       <c r="L40" s="2">
         <f>SUM(L33:L39)</f>
@@ -2393,9 +2912,15 @@
       <c r="H43" t="s">
         <v>75</v>
       </c>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="3"/>
+      <c r="I43" s="2">
+        <v>473295</v>
+      </c>
+      <c r="J43" s="2">
+        <v>473287</v>
+      </c>
+      <c r="K43" s="3">
+        <v>376750</v>
+      </c>
       <c r="L43" s="2">
         <v>335750</v>
       </c>
@@ -2426,9 +2951,15 @@
       <c r="H44" t="s">
         <v>76</v>
       </c>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="3"/>
+      <c r="I44" s="2">
+        <v>1654837</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1752087</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1604969</v>
+      </c>
       <c r="L44" s="2">
         <v>1604969</v>
       </c>
@@ -2459,9 +2990,15 @@
       <c r="H45" t="s">
         <v>77</v>
       </c>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="3"/>
+      <c r="I45" s="2">
+        <v>5829505</v>
+      </c>
+      <c r="J45" s="2">
+        <v>456963</v>
+      </c>
+      <c r="K45" s="3">
+        <v>500317</v>
+      </c>
       <c r="L45" s="2">
         <v>500645</v>
       </c>
@@ -2492,9 +3029,15 @@
       <c r="H46" t="s">
         <v>78</v>
       </c>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="3"/>
+      <c r="I46" s="2">
+        <v>992638</v>
+      </c>
+      <c r="J46" s="2">
+        <v>991639</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
       <c r="L46" s="2" t="s">
         <v>101</v>
       </c>
@@ -2525,9 +3068,15 @@
       <c r="H47" t="s">
         <v>79</v>
       </c>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="3"/>
+      <c r="I47" s="2">
+        <v>1505385</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1650360</v>
+      </c>
+      <c r="K47" s="3">
+        <v>1463321</v>
+      </c>
       <c r="L47" s="2">
         <v>1463321</v>
       </c>
@@ -2558,9 +3107,15 @@
       <c r="H48" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="3"/>
+      <c r="I48" s="2">
+        <v>3973698</v>
+      </c>
+      <c r="J48" s="2">
+        <v>5321667</v>
+      </c>
+      <c r="K48" s="3">
+        <v>4283772</v>
+      </c>
       <c r="L48" s="2">
         <v>4274566</v>
       </c>
@@ -2593,15 +3148,15 @@
       </c>
       <c r="I49" s="2">
         <f>SUM(I43:I48)</f>
-        <v>0</v>
+        <v>14429358</v>
       </c>
       <c r="J49" s="2">
         <f>SUM(J43:J48)</f>
-        <v>0</v>
+        <v>10646003</v>
       </c>
       <c r="K49" s="3">
         <f>SUM(K43:K48)</f>
-        <v>0</v>
+        <v>8229129</v>
       </c>
       <c r="L49" s="2">
         <f>SUM(L43:L48)</f>
@@ -2690,9 +3245,15 @@
       <c r="H52" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="3"/>
+      <c r="I52" s="2">
+        <v>7320500</v>
+      </c>
+      <c r="J52" s="2">
+        <v>8012853</v>
+      </c>
+      <c r="K52" s="3">
+        <v>7274894</v>
+      </c>
       <c r="L52" s="2">
         <v>7559973</v>
       </c>
@@ -2723,9 +3284,15 @@
       <c r="H53" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="3"/>
+      <c r="I53" s="2">
+        <v>20919526</v>
+      </c>
+      <c r="J53" s="2">
+        <v>22821757</v>
+      </c>
+      <c r="K53" s="3">
+        <v>18303336</v>
+      </c>
       <c r="L53" s="2">
         <v>19965975</v>
       </c>
@@ -2756,9 +3323,15 @@
       <c r="H54" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="3"/>
+      <c r="I54" s="2">
+        <v>580696</v>
+      </c>
+      <c r="J54" s="2">
+        <v>255002</v>
+      </c>
+      <c r="K54" s="3">
+        <v>207762</v>
+      </c>
       <c r="L54" s="2">
         <v>330962</v>
       </c>
@@ -2791,15 +3364,15 @@
       </c>
       <c r="I55" s="2">
         <f>SUM(I52:I54)</f>
-        <v>0</v>
+        <v>28820722</v>
       </c>
       <c r="J55" s="2">
         <f>SUM(J52:J54)</f>
-        <v>0</v>
+        <v>31089612</v>
       </c>
       <c r="K55" s="3">
         <f>SUM(K52:K54)</f>
-        <v>0</v>
+        <v>25785992</v>
       </c>
       <c r="L55" s="2">
         <f>SUM(L52:L54)</f>
@@ -2888,9 +3461,15 @@
       <c r="H58" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="3"/>
+      <c r="I58" s="2">
+        <v>500000</v>
+      </c>
+      <c r="J58" s="2">
+        <v>500000</v>
+      </c>
+      <c r="K58" s="3">
+        <v>500000</v>
+      </c>
       <c r="L58" s="2">
         <v>500000</v>
       </c>
@@ -2921,9 +3500,15 @@
       <c r="H59" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="3"/>
+      <c r="I59" s="2">
+        <v>4472629</v>
+      </c>
+      <c r="J59" s="2">
+        <v>3560595</v>
+      </c>
+      <c r="K59" s="3">
+        <v>3743406</v>
+      </c>
       <c r="L59" s="2">
         <v>4023406</v>
       </c>
@@ -2954,9 +3539,15 @@
       <c r="H60" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="3"/>
+      <c r="I60" s="2">
+        <v>7474062</v>
+      </c>
+      <c r="J60" s="2">
+        <v>6910069</v>
+      </c>
+      <c r="K60" s="3">
+        <v>6461013</v>
+      </c>
       <c r="L60" s="2">
         <v>6461013</v>
       </c>
@@ -2992,9 +3583,15 @@
       <c r="H61" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="3"/>
+      <c r="I61" s="2">
+        <v>3616367</v>
+      </c>
+      <c r="J61" s="2">
+        <v>3573407</v>
+      </c>
+      <c r="K61" s="3">
+        <v>3588738</v>
+      </c>
       <c r="L61" s="2">
         <v>3588738</v>
       </c>
@@ -3019,9 +3616,15 @@
       <c r="H62" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="3"/>
+      <c r="I62" s="2">
+        <v>325824</v>
+      </c>
+      <c r="J62" s="2">
+        <v>327822</v>
+      </c>
+      <c r="K62" s="3">
+        <v>225000</v>
+      </c>
       <c r="L62" s="2">
         <v>225000</v>
       </c>
@@ -3052,9 +3655,15 @@
       <c r="H63" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="3"/>
+      <c r="I63" s="2">
+        <v>380826</v>
+      </c>
+      <c r="J63" s="2">
+        <v>384216</v>
+      </c>
+      <c r="K63" s="3">
+        <v>382998</v>
+      </c>
       <c r="L63" s="2">
         <v>382998</v>
       </c>
@@ -3090,9 +3699,15 @@
       <c r="H64" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="3"/>
+      <c r="I64" s="2">
+        <v>7967786</v>
+      </c>
+      <c r="J64" s="2">
+        <v>8226975</v>
+      </c>
+      <c r="K64" s="3">
+        <v>8316328</v>
+      </c>
       <c r="L64" s="2">
         <v>9199194</v>
       </c>
@@ -3112,15 +3727,15 @@
       </c>
       <c r="I65" s="2">
         <f>SUM(I58:I64)</f>
-        <v>0</v>
+        <v>24737494</v>
       </c>
       <c r="J65" s="2">
         <f>SUM(J58:J64)</f>
-        <v>0</v>
+        <v>23483084</v>
       </c>
       <c r="K65" s="3">
         <f>SUM(K58:K64)</f>
-        <v>0</v>
+        <v>23217483</v>
       </c>
       <c r="L65" s="2">
         <f>SUM(L58:L64)</f>
@@ -3170,9 +3785,15 @@
       <c r="H68" t="s">
         <v>94</v>
       </c>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="3"/>
+      <c r="I68" s="2">
+        <v>5305154</v>
+      </c>
+      <c r="J68" s="2">
+        <v>8222193</v>
+      </c>
+      <c r="K68" s="3">
+        <v>7731607</v>
+      </c>
       <c r="L68" s="2">
         <v>5501269</v>
       </c>
@@ -3185,9 +3806,15 @@
       <c r="H69" t="s">
         <v>95</v>
       </c>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="3"/>
+      <c r="I69" s="2">
+        <v>1752987</v>
+      </c>
+      <c r="J69" s="2">
+        <v>1695888</v>
+      </c>
+      <c r="K69" s="3">
+        <v>1695888</v>
+      </c>
       <c r="L69" s="2">
         <v>1695888</v>
       </c>
@@ -3200,9 +3827,15 @@
       <c r="H70" t="s">
         <v>96</v>
       </c>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="3"/>
+      <c r="I70" s="2">
+        <v>15488692</v>
+      </c>
+      <c r="J70" s="2">
+        <v>16236039</v>
+      </c>
+      <c r="K70" s="3">
+        <v>16631412</v>
+      </c>
       <c r="L70" s="2">
         <v>16904288</v>
       </c>
@@ -3215,9 +3848,15 @@
       <c r="H71" t="s">
         <v>97</v>
       </c>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="3"/>
+      <c r="I71" s="2">
+        <v>3911005</v>
+      </c>
+      <c r="J71" s="2">
+        <v>3899835</v>
+      </c>
+      <c r="K71" s="3">
+        <v>3900000</v>
+      </c>
       <c r="L71" s="2">
         <v>3900000</v>
       </c>
@@ -3230,9 +3869,15 @@
       <c r="H72" t="s">
         <v>98</v>
       </c>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="3"/>
+      <c r="I72" s="2">
+        <v>2746208</v>
+      </c>
+      <c r="J72" s="2">
+        <v>2868432</v>
+      </c>
+      <c r="K72" s="3">
+        <v>3172884</v>
+      </c>
       <c r="L72" s="2">
         <v>1222988</v>
       </c>
@@ -3245,9 +3890,15 @@
       <c r="H73" t="s">
         <v>99</v>
       </c>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="3"/>
+      <c r="I73" s="2">
+        <v>2072410</v>
+      </c>
+      <c r="J73" s="2">
+        <v>6352799</v>
+      </c>
+      <c r="K73" s="3">
+        <v>1000832</v>
+      </c>
       <c r="L73" s="2">
         <v>1000832</v>
       </c>
@@ -3260,9 +3911,15 @@
       <c r="H74" t="s">
         <v>100</v>
       </c>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="3"/>
+      <c r="I74" s="2">
+        <v>3583097</v>
+      </c>
+      <c r="J74" s="2">
+        <v>4081366</v>
+      </c>
+      <c r="K74" s="3">
+        <v>3603018</v>
+      </c>
       <c r="L74" s="2">
         <v>3703018</v>
       </c>
@@ -3275,9 +3932,15 @@
       <c r="H75" t="s">
         <v>93</v>
       </c>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="3"/>
+      <c r="I75" s="2">
+        <v>5254050</v>
+      </c>
+      <c r="J75" s="2">
+        <v>6405333</v>
+      </c>
+      <c r="K75" s="3">
+        <v>4026059</v>
+      </c>
       <c r="L75" s="2">
         <v>4110712</v>
       </c>
@@ -3292,15 +3955,15 @@
       </c>
       <c r="I76" s="2">
         <f>SUM(I68:I75)</f>
-        <v>0</v>
+        <v>40113603</v>
       </c>
       <c r="J76" s="2">
         <f>SUM(J68:J75)</f>
-        <v>0</v>
+        <v>49761885</v>
       </c>
       <c r="K76" s="3">
         <f>SUM(K68:K75)</f>
-        <v>0</v>
+        <v>41761700</v>
       </c>
       <c r="L76" s="2">
         <f>SUM(L68:L75)</f>
@@ -3326,15 +3989,15 @@
       </c>
       <c r="I78" s="2">
         <f>I15+I28+I30+I40+I49+I55+I65+I76</f>
-        <v>0</v>
+        <v>215057773</v>
       </c>
       <c r="J78" s="2">
         <f>J15+J28+J30+J40+J49+J55+J65+J76</f>
-        <v>0</v>
+        <v>243604205</v>
       </c>
       <c r="K78" s="3">
         <f>K15+K28+K30+K40+K49+K55+K65+K76</f>
-        <v>0</v>
+        <v>212266607</v>
       </c>
       <c r="L78" s="2">
         <f>L15+L28+L30+L40+L49+L55+L65+L76</f>
@@ -4679,14 +5342,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="L100" sqref="L100"/>
+    <sheetView tabSelected="1" topLeftCell="D72" workbookViewId="0">
+      <selection activeCell="K103" sqref="K103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -4749,6 +5414,11 @@
       <c r="H2" t="s">
         <v>41</v>
       </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
@@ -4772,10 +5442,19 @@
       <c r="H3" t="s">
         <v>42</v>
       </c>
-      <c r="L3">
+      <c r="I3" s="2">
+        <v>984051</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1032227</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1052122</v>
+      </c>
+      <c r="L3" s="2">
         <v>1070929</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <v>1092347</v>
       </c>
     </row>
@@ -4801,10 +5480,19 @@
       <c r="H4" t="s">
         <v>43</v>
       </c>
-      <c r="L4">
+      <c r="I4" s="2">
+        <v>3110933</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3226626</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2844356</v>
+      </c>
+      <c r="L4" s="2">
         <v>3050030</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <v>3191390</v>
       </c>
     </row>
@@ -4830,10 +5518,19 @@
       <c r="H5" t="s">
         <v>44</v>
       </c>
-      <c r="L5">
+      <c r="I5" s="2">
+        <v>9542084</v>
+      </c>
+      <c r="J5" s="2">
+        <v>9762684</v>
+      </c>
+      <c r="K5" s="2">
+        <v>9948439</v>
+      </c>
+      <c r="L5" s="2">
         <v>11826449</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <v>12027328</v>
       </c>
     </row>
@@ -4859,10 +5556,19 @@
       <c r="H6" t="s">
         <v>45</v>
       </c>
-      <c r="L6">
+      <c r="I6" s="2">
+        <v>969769</v>
+      </c>
+      <c r="J6" s="2">
+        <v>947947</v>
+      </c>
+      <c r="K6" s="2">
         <v>1005000</v>
       </c>
-      <c r="M6">
+      <c r="L6" s="2">
+        <v>1005000</v>
+      </c>
+      <c r="M6" s="2">
         <v>1005000</v>
       </c>
     </row>
@@ -4888,10 +5594,19 @@
       <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="L7">
+      <c r="I7" s="2">
+        <v>3917791</v>
+      </c>
+      <c r="J7" s="2">
+        <v>4130013</v>
+      </c>
+      <c r="K7" s="2">
+        <v>4186198</v>
+      </c>
+      <c r="L7" s="2">
         <v>4256305</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <v>4341432</v>
       </c>
     </row>
@@ -4917,10 +5632,19 @@
       <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="L8">
+      <c r="I8" s="2">
+        <v>2052466</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2065845</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2023244</v>
+      </c>
+      <c r="L8" s="2">
         <v>1866961</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="2">
         <v>1866961</v>
       </c>
     </row>
@@ -4946,10 +5670,19 @@
       <c r="H9" t="s">
         <v>48</v>
       </c>
-      <c r="L9">
+      <c r="I9" s="2">
+        <v>52888</v>
+      </c>
+      <c r="J9" s="2">
+        <v>28164</v>
+      </c>
+      <c r="K9" s="2">
         <v>35000</v>
       </c>
-      <c r="M9">
+      <c r="L9" s="2">
+        <v>35000</v>
+      </c>
+      <c r="M9" s="2">
         <v>35000</v>
       </c>
     </row>
@@ -4975,9 +5708,19 @@
       <c r="H10" t="s">
         <v>49</v>
       </c>
-      <c r="L10" t="s">
+      <c r="I10" s="2">
+        <v>4613</v>
+      </c>
+      <c r="J10" s="2">
+        <v>10</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
@@ -5001,10 +5744,19 @@
       <c r="H11" t="s">
         <v>50</v>
       </c>
-      <c r="L11">
+      <c r="I11" s="2">
+        <v>226933</v>
+      </c>
+      <c r="J11" s="2">
+        <v>226450</v>
+      </c>
+      <c r="K11" s="2">
         <v>263000</v>
       </c>
-      <c r="M11">
+      <c r="L11" s="2">
+        <v>263000</v>
+      </c>
+      <c r="M11" s="2">
         <v>263000</v>
       </c>
     </row>
@@ -5030,10 +5782,19 @@
       <c r="H12" t="s">
         <v>51</v>
       </c>
-      <c r="L12">
+      <c r="I12" s="2">
+        <v>165672</v>
+      </c>
+      <c r="J12" s="2">
+        <v>164558</v>
+      </c>
+      <c r="K12" s="2">
         <v>168550</v>
       </c>
-      <c r="M12">
+      <c r="L12" s="2">
+        <v>168550</v>
+      </c>
+      <c r="M12" s="2">
         <v>168550</v>
       </c>
     </row>
@@ -5059,10 +5820,19 @@
       <c r="H13" t="s">
         <v>52</v>
       </c>
-      <c r="L13">
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>488864</v>
+      </c>
+      <c r="K13" s="2">
+        <v>496424</v>
+      </c>
+      <c r="L13" s="2">
         <v>546823</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="2">
         <v>557759</v>
       </c>
     </row>
@@ -5088,10 +5858,19 @@
       <c r="H14" t="s">
         <v>53</v>
       </c>
-      <c r="L14">
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
         <v>30000</v>
       </c>
-      <c r="M14">
+      <c r="L14" s="2">
+        <v>30000</v>
+      </c>
+      <c r="M14" s="2">
         <v>30000</v>
       </c>
     </row>
@@ -5117,19 +5896,19 @@
       <c r="H15" t="s">
         <v>104</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
+      <c r="I15" s="2">
+        <v>21027200</v>
+      </c>
+      <c r="J15" s="2">
+        <v>22073388</v>
+      </c>
+      <c r="K15" s="2">
+        <v>22052333</v>
+      </c>
+      <c r="L15" s="2">
         <v>24119047</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="2">
         <v>24578767</v>
       </c>
     </row>
@@ -5152,20 +5931,39 @@
       <c r="F16">
         <v>161392576</v>
       </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13">
       <c r="H17" t="s">
         <v>54</v>
       </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13">
       <c r="H18" t="s">
         <v>55</v>
       </c>
-      <c r="L18">
+      <c r="I18" s="2">
+        <v>33861186</v>
+      </c>
+      <c r="J18" s="2">
+        <v>34101574</v>
+      </c>
+      <c r="K18" s="2">
+        <v>36673523</v>
+      </c>
+      <c r="L18" s="2">
         <v>37600783</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="2">
         <v>37710238</v>
       </c>
     </row>
@@ -5191,10 +5989,19 @@
       <c r="H19" t="s">
         <v>56</v>
       </c>
-      <c r="L19">
+      <c r="I19" s="2">
+        <v>5230735</v>
+      </c>
+      <c r="J19" s="2">
+        <v>5478724</v>
+      </c>
+      <c r="K19" s="2">
+        <v>5558716</v>
+      </c>
+      <c r="L19" s="2">
         <v>5311066</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="2">
         <v>5311066</v>
       </c>
     </row>
@@ -5220,10 +6027,19 @@
       <c r="H20" t="s">
         <v>57</v>
       </c>
-      <c r="L20">
+      <c r="I20" s="2">
+        <v>13315067</v>
+      </c>
+      <c r="J20" s="2">
+        <v>13588024</v>
+      </c>
+      <c r="K20" s="2">
         <v>12801227</v>
       </c>
-      <c r="M20">
+      <c r="L20" s="2">
+        <v>12801227</v>
+      </c>
+      <c r="M20" s="2">
         <v>12801227</v>
       </c>
     </row>
@@ -5249,10 +6065,19 @@
       <c r="H21" t="s">
         <v>58</v>
       </c>
-      <c r="L21">
+      <c r="I21" s="2">
+        <v>2467033</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2316216</v>
+      </c>
+      <c r="K21" s="2">
+        <v>2365140</v>
+      </c>
+      <c r="L21" s="2">
         <v>2502740</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="2">
         <v>2510569</v>
       </c>
     </row>
@@ -5278,10 +6103,19 @@
       <c r="H22" t="s">
         <v>59</v>
       </c>
-      <c r="L22">
+      <c r="I22" s="2">
+        <v>577473</v>
+      </c>
+      <c r="J22" s="2">
+        <v>245868</v>
+      </c>
+      <c r="K22" s="2">
         <v>240501</v>
       </c>
-      <c r="M22">
+      <c r="L22" s="2">
+        <v>240501</v>
+      </c>
+      <c r="M22" s="2">
         <v>240501</v>
       </c>
     </row>
@@ -5307,10 +6141,19 @@
       <c r="H23" t="s">
         <v>60</v>
       </c>
-      <c r="L23">
+      <c r="I23" s="2">
+        <v>9249750</v>
+      </c>
+      <c r="J23" s="2">
+        <v>14087031</v>
+      </c>
+      <c r="K23" s="2">
+        <v>13552248</v>
+      </c>
+      <c r="L23" s="2">
         <v>12238260</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="2">
         <v>12544854</v>
       </c>
     </row>
@@ -5336,10 +6179,19 @@
       <c r="H24" t="s">
         <v>61</v>
       </c>
-      <c r="L24">
+      <c r="I24" s="2">
+        <v>3781582</v>
+      </c>
+      <c r="J24" s="2">
+        <v>3858118</v>
+      </c>
+      <c r="K24" s="2">
+        <v>3743972</v>
+      </c>
+      <c r="L24" s="2">
         <v>4204428</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="2">
         <v>3504428</v>
       </c>
     </row>
@@ -5365,10 +6217,19 @@
       <c r="H25" t="s">
         <v>62</v>
       </c>
-      <c r="L25">
+      <c r="I25" s="2">
+        <v>6496735</v>
+      </c>
+      <c r="J25" s="2">
+        <v>8052253</v>
+      </c>
+      <c r="K25" s="2">
+        <v>6861311</v>
+      </c>
+      <c r="L25" s="2">
         <v>9191713</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="2">
         <v>9191713</v>
       </c>
     </row>
@@ -5394,10 +6255,19 @@
       <c r="H26" t="s">
         <v>63</v>
       </c>
-      <c r="L26">
+      <c r="I26" s="2">
+        <v>835264</v>
+      </c>
+      <c r="J26" s="2">
+        <v>792597</v>
+      </c>
+      <c r="K26" s="2">
+        <v>864531</v>
+      </c>
+      <c r="L26" s="2">
         <v>851868</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="2">
         <v>851868</v>
       </c>
     </row>
@@ -5423,10 +6293,19 @@
       <c r="H27" t="s">
         <v>64</v>
       </c>
-      <c r="L27">
+      <c r="I27" s="2">
+        <v>2632711</v>
+      </c>
+      <c r="J27" s="2">
+        <v>2237128</v>
+      </c>
+      <c r="K27" s="2">
+        <v>2193961</v>
+      </c>
+      <c r="L27" s="2">
         <v>2086780</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="2">
         <v>2111455</v>
       </c>
     </row>
@@ -5452,19 +6331,19 @@
       <c r="H28" t="s">
         <v>104</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
+      <c r="I28" s="2">
+        <v>78447536</v>
+      </c>
+      <c r="J28" s="2">
+        <v>84757533</v>
+      </c>
+      <c r="K28" s="2">
+        <v>84855130</v>
+      </c>
+      <c r="L28" s="2">
         <v>87029366</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="2">
         <v>86777919</v>
       </c>
     </row>
@@ -5487,6 +6366,11 @@
       <c r="F29">
         <v>1873393</v>
       </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
@@ -5510,10 +6394,19 @@
       <c r="H30" t="s">
         <v>65</v>
       </c>
-      <c r="L30">
+      <c r="I30" s="2">
+        <v>7360154</v>
+      </c>
+      <c r="J30" s="2">
+        <v>6713733</v>
+      </c>
+      <c r="K30" s="2">
+        <v>6161504</v>
+      </c>
+      <c r="L30" s="2">
         <v>6042504</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="2">
         <v>6042504</v>
       </c>
     </row>
@@ -5536,6 +6429,11 @@
       <c r="F31">
         <v>58368718</v>
       </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
@@ -5559,6 +6457,11 @@
       <c r="H32" t="s">
         <v>66</v>
       </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
@@ -5582,10 +6485,19 @@
       <c r="H33" t="s">
         <v>67</v>
       </c>
-      <c r="L33" t="s">
+      <c r="I33" s="2">
+        <v>17486</v>
+      </c>
+      <c r="J33" s="2">
+        <v>2639</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5611,10 +6523,19 @@
       <c r="H34" t="s">
         <v>68</v>
       </c>
-      <c r="L34" t="s">
+      <c r="I34" s="2">
+        <v>3253</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1032</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5640,10 +6561,19 @@
       <c r="H35" t="s">
         <v>69</v>
       </c>
-      <c r="L35" t="s">
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>14975000</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5669,10 +6599,19 @@
       <c r="H36" t="s">
         <v>70</v>
       </c>
-      <c r="L36" t="s">
+      <c r="I36" s="2">
+        <v>952</v>
+      </c>
+      <c r="J36" s="2">
+        <v>292</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5698,10 +6637,19 @@
       <c r="H37" t="s">
         <v>71</v>
       </c>
-      <c r="L37">
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
         <v>103336</v>
       </c>
-      <c r="M37">
+      <c r="L37" s="2">
+        <v>103336</v>
+      </c>
+      <c r="M37" s="2">
         <v>103336</v>
       </c>
     </row>
@@ -5727,10 +6675,19 @@
       <c r="H38" t="s">
         <v>72</v>
       </c>
-      <c r="L38">
+      <c r="I38" s="2">
+        <v>100002</v>
+      </c>
+      <c r="J38" s="2">
         <v>100000</v>
       </c>
-      <c r="M38">
+      <c r="K38" s="2">
+        <v>100000</v>
+      </c>
+      <c r="L38" s="2">
+        <v>100000</v>
+      </c>
+      <c r="M38" s="2">
         <v>100000</v>
       </c>
     </row>
@@ -5738,10 +6695,19 @@
       <c r="H39" t="s">
         <v>73</v>
       </c>
-      <c r="L39" t="s">
+      <c r="I39" s="2">
+        <v>13</v>
+      </c>
+      <c r="J39" s="2">
+        <v>4</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5749,19 +6715,19 @@
       <c r="H40" t="s">
         <v>104</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
+      <c r="I40" s="2">
+        <v>121706</v>
+      </c>
+      <c r="J40" s="2">
+        <v>15078967</v>
+      </c>
+      <c r="K40" s="2">
         <v>203336</v>
       </c>
-      <c r="M40">
+      <c r="L40" s="2">
+        <v>203336</v>
+      </c>
+      <c r="M40" s="2">
         <v>203336</v>
       </c>
     </row>
@@ -5784,6 +6750,11 @@
       <c r="F41" t="s">
         <v>24</v>
       </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
@@ -5807,6 +6778,11 @@
       <c r="H42" t="s">
         <v>74</v>
       </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
@@ -5830,10 +6806,19 @@
       <c r="H43" t="s">
         <v>75</v>
       </c>
-      <c r="L43">
+      <c r="I43" s="2">
+        <v>473295</v>
+      </c>
+      <c r="J43" s="2">
+        <v>473287</v>
+      </c>
+      <c r="K43" s="2">
+        <v>376750</v>
+      </c>
+      <c r="L43" s="2">
         <v>335750</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="2">
         <v>296000</v>
       </c>
     </row>
@@ -5859,10 +6844,19 @@
       <c r="H44" t="s">
         <v>76</v>
       </c>
-      <c r="L44">
+      <c r="I44" s="2">
+        <v>1654837</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1752087</v>
+      </c>
+      <c r="K44" s="2">
         <v>1604969</v>
       </c>
-      <c r="M44">
+      <c r="L44" s="2">
+        <v>1604969</v>
+      </c>
+      <c r="M44" s="2">
         <v>1604969</v>
       </c>
     </row>
@@ -5888,10 +6882,19 @@
       <c r="H45" t="s">
         <v>77</v>
       </c>
-      <c r="L45">
+      <c r="I45" s="2">
+        <v>5829505</v>
+      </c>
+      <c r="J45" s="2">
+        <v>456963</v>
+      </c>
+      <c r="K45" s="2">
+        <v>500317</v>
+      </c>
+      <c r="L45" s="2">
         <v>500645</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="2">
         <v>499333</v>
       </c>
     </row>
@@ -5917,10 +6920,19 @@
       <c r="H46" t="s">
         <v>78</v>
       </c>
-      <c r="L46" t="s">
+      <c r="I46" s="2">
+        <v>992638</v>
+      </c>
+      <c r="J46" s="2">
+        <v>991639</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5946,10 +6958,19 @@
       <c r="H47" t="s">
         <v>79</v>
       </c>
-      <c r="L47">
+      <c r="I47" s="2">
+        <v>1505385</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1650360</v>
+      </c>
+      <c r="K47" s="2">
         <v>1463321</v>
       </c>
-      <c r="M47">
+      <c r="L47" s="2">
+        <v>1463321</v>
+      </c>
+      <c r="M47" s="2">
         <v>1463321</v>
       </c>
     </row>
@@ -5975,10 +6996,19 @@
       <c r="H48" t="s">
         <v>80</v>
       </c>
-      <c r="L48">
+      <c r="I48" s="2">
+        <v>3973698</v>
+      </c>
+      <c r="J48" s="2">
+        <v>5321667</v>
+      </c>
+      <c r="K48" s="2">
+        <v>4283772</v>
+      </c>
+      <c r="L48" s="2">
         <v>4274566</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="2">
         <v>4280141</v>
       </c>
     </row>
@@ -6004,19 +7034,19 @@
       <c r="H49" t="s">
         <v>104</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
+      <c r="I49" s="2">
+        <v>14429358</v>
+      </c>
+      <c r="J49" s="2">
+        <v>10646003</v>
+      </c>
+      <c r="K49" s="2">
+        <v>8229129</v>
+      </c>
+      <c r="L49" s="2">
         <v>8179251</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="2">
         <v>8143764</v>
       </c>
     </row>
@@ -6039,6 +7069,11 @@
       <c r="F50">
         <v>7545035</v>
       </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
@@ -6062,6 +7097,11 @@
       <c r="H51" t="s">
         <v>81</v>
       </c>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
@@ -6085,10 +7125,19 @@
       <c r="H52" t="s">
         <v>82</v>
       </c>
-      <c r="L52">
+      <c r="I52" s="2">
+        <v>7320500</v>
+      </c>
+      <c r="J52" s="2">
+        <v>8012853</v>
+      </c>
+      <c r="K52" s="2">
+        <v>7274894</v>
+      </c>
+      <c r="L52" s="2">
         <v>7559973</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="2">
         <v>7559973</v>
       </c>
     </row>
@@ -6114,10 +7163,19 @@
       <c r="H53" t="s">
         <v>83</v>
       </c>
-      <c r="L53">
+      <c r="I53" s="2">
+        <v>20919526</v>
+      </c>
+      <c r="J53" s="2">
+        <v>22821757</v>
+      </c>
+      <c r="K53" s="2">
+        <v>18303336</v>
+      </c>
+      <c r="L53" s="2">
         <v>19965975</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="2">
         <v>19859520</v>
       </c>
     </row>
@@ -6143,10 +7201,19 @@
       <c r="H54" t="s">
         <v>84</v>
       </c>
-      <c r="L54">
+      <c r="I54" s="2">
+        <v>580696</v>
+      </c>
+      <c r="J54" s="2">
+        <v>255002</v>
+      </c>
+      <c r="K54" s="2">
+        <v>207762</v>
+      </c>
+      <c r="L54" s="2">
         <v>330962</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="2">
         <v>330962</v>
       </c>
     </row>
@@ -6172,19 +7239,19 @@
       <c r="H55" t="s">
         <v>104</v>
       </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
+      <c r="I55" s="2">
+        <v>28820722</v>
+      </c>
+      <c r="J55" s="2">
+        <v>31089612</v>
+      </c>
+      <c r="K55" s="2">
+        <v>25785992</v>
+      </c>
+      <c r="L55" s="2">
         <v>27856910</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="2">
         <v>27750455</v>
       </c>
     </row>
@@ -6207,6 +7274,11 @@
       <c r="F56">
         <v>24838563</v>
       </c>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
@@ -6230,6 +7302,11 @@
       <c r="H57" t="s">
         <v>85</v>
       </c>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
@@ -6253,10 +7330,19 @@
       <c r="H58" t="s">
         <v>86</v>
       </c>
-      <c r="L58">
+      <c r="I58" s="2">
         <v>500000</v>
       </c>
-      <c r="M58">
+      <c r="J58" s="2">
+        <v>500000</v>
+      </c>
+      <c r="K58" s="2">
+        <v>500000</v>
+      </c>
+      <c r="L58" s="2">
+        <v>500000</v>
+      </c>
+      <c r="M58" s="2">
         <v>500000</v>
       </c>
     </row>
@@ -6282,10 +7368,19 @@
       <c r="H59" t="s">
         <v>87</v>
       </c>
-      <c r="L59">
+      <c r="I59" s="2">
+        <v>4472629</v>
+      </c>
+      <c r="J59" s="2">
+        <v>3560595</v>
+      </c>
+      <c r="K59" s="2">
+        <v>3743406</v>
+      </c>
+      <c r="L59" s="2">
         <v>4023406</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="2">
         <v>4023406</v>
       </c>
     </row>
@@ -6311,10 +7406,19 @@
       <c r="H60" t="s">
         <v>88</v>
       </c>
-      <c r="L60">
+      <c r="I60" s="2">
+        <v>7474062</v>
+      </c>
+      <c r="J60" s="2">
+        <v>6910069</v>
+      </c>
+      <c r="K60" s="2">
         <v>6461013</v>
       </c>
-      <c r="M60">
+      <c r="L60" s="2">
+        <v>6461013</v>
+      </c>
+      <c r="M60" s="2">
         <v>6461013</v>
       </c>
     </row>
@@ -6340,10 +7444,19 @@
       <c r="H61" t="s">
         <v>89</v>
       </c>
-      <c r="L61">
+      <c r="I61" s="2">
+        <v>3616367</v>
+      </c>
+      <c r="J61" s="2">
+        <v>3573407</v>
+      </c>
+      <c r="K61" s="2">
         <v>3588738</v>
       </c>
-      <c r="M61">
+      <c r="L61" s="2">
+        <v>3588738</v>
+      </c>
+      <c r="M61" s="2">
         <v>3588738</v>
       </c>
     </row>
@@ -6360,10 +7473,19 @@
       <c r="H62" t="s">
         <v>90</v>
       </c>
-      <c r="L62">
+      <c r="I62" s="2">
+        <v>325824</v>
+      </c>
+      <c r="J62" s="2">
+        <v>327822</v>
+      </c>
+      <c r="K62" s="2">
         <v>225000</v>
       </c>
-      <c r="M62">
+      <c r="L62" s="2">
+        <v>225000</v>
+      </c>
+      <c r="M62" s="2">
         <v>225000</v>
       </c>
     </row>
@@ -6389,10 +7511,19 @@
       <c r="H63" t="s">
         <v>91</v>
       </c>
-      <c r="L63">
+      <c r="I63" s="2">
+        <v>380826</v>
+      </c>
+      <c r="J63" s="2">
+        <v>384216</v>
+      </c>
+      <c r="K63" s="2">
         <v>382998</v>
       </c>
-      <c r="M63">
+      <c r="L63" s="2">
+        <v>382998</v>
+      </c>
+      <c r="M63" s="2">
         <v>382998</v>
       </c>
     </row>
@@ -6418,10 +7549,19 @@
       <c r="H64" t="s">
         <v>92</v>
       </c>
-      <c r="L64">
+      <c r="I64" s="2">
+        <v>7967786</v>
+      </c>
+      <c r="J64" s="2">
+        <v>8226975</v>
+      </c>
+      <c r="K64" s="2">
+        <v>8316328</v>
+      </c>
+      <c r="L64" s="2">
         <v>9199194</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="2">
         <v>9201683</v>
       </c>
     </row>
@@ -6429,35 +7569,56 @@
       <c r="H65" t="s">
         <v>104</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
+      <c r="I65" s="2">
+        <v>24737494</v>
+      </c>
+      <c r="J65" s="2">
+        <v>23483084</v>
+      </c>
+      <c r="K65" s="2">
+        <v>23217483</v>
+      </c>
+      <c r="L65" s="2">
         <v>24380349</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="2">
         <v>24382838</v>
       </c>
+    </row>
+    <row r="66" spans="8:13">
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
     </row>
     <row r="67" spans="8:13">
       <c r="H67" t="s">
         <v>93</v>
       </c>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
     </row>
     <row r="68" spans="8:13">
       <c r="H68" t="s">
         <v>94</v>
       </c>
-      <c r="L68">
+      <c r="I68" s="2">
+        <v>5305154</v>
+      </c>
+      <c r="J68" s="2">
+        <v>8222193</v>
+      </c>
+      <c r="K68" s="2">
+        <v>7731607</v>
+      </c>
+      <c r="L68" s="2">
         <v>5501269</v>
       </c>
-      <c r="M68">
+      <c r="M68" s="2">
         <v>5501269</v>
       </c>
     </row>
@@ -6465,10 +7626,19 @@
       <c r="H69" t="s">
         <v>95</v>
       </c>
-      <c r="L69">
+      <c r="I69" s="2">
+        <v>1752987</v>
+      </c>
+      <c r="J69" s="2">
         <v>1695888</v>
       </c>
-      <c r="M69">
+      <c r="K69" s="2">
+        <v>1695888</v>
+      </c>
+      <c r="L69" s="2">
+        <v>1695888</v>
+      </c>
+      <c r="M69" s="2">
         <v>1695888</v>
       </c>
     </row>
@@ -6476,10 +7646,19 @@
       <c r="H70" t="s">
         <v>96</v>
       </c>
-      <c r="L70">
+      <c r="I70" s="2">
+        <v>15488692</v>
+      </c>
+      <c r="J70" s="2">
+        <v>16236039</v>
+      </c>
+      <c r="K70" s="2">
+        <v>16631412</v>
+      </c>
+      <c r="L70" s="2">
         <v>16904288</v>
       </c>
-      <c r="M70">
+      <c r="M70" s="2">
         <v>17236634</v>
       </c>
     </row>
@@ -6487,10 +7666,19 @@
       <c r="H71" t="s">
         <v>97</v>
       </c>
-      <c r="L71">
+      <c r="I71" s="2">
+        <v>3911005</v>
+      </c>
+      <c r="J71" s="2">
+        <v>3899835</v>
+      </c>
+      <c r="K71" s="2">
         <v>3900000</v>
       </c>
-      <c r="M71">
+      <c r="L71" s="2">
+        <v>3900000</v>
+      </c>
+      <c r="M71" s="2">
         <v>3900000</v>
       </c>
     </row>
@@ -6498,10 +7686,19 @@
       <c r="H72" t="s">
         <v>98</v>
       </c>
-      <c r="L72">
+      <c r="I72" s="2">
+        <v>2746208</v>
+      </c>
+      <c r="J72" s="2">
+        <v>2868432</v>
+      </c>
+      <c r="K72" s="2">
+        <v>3172884</v>
+      </c>
+      <c r="L72" s="2">
         <v>1222988</v>
       </c>
-      <c r="M72">
+      <c r="M72" s="2">
         <v>1222988</v>
       </c>
     </row>
@@ -6509,10 +7706,19 @@
       <c r="H73" t="s">
         <v>99</v>
       </c>
-      <c r="L73">
+      <c r="I73" s="2">
+        <v>2072410</v>
+      </c>
+      <c r="J73" s="2">
+        <v>6352799</v>
+      </c>
+      <c r="K73" s="2">
         <v>1000832</v>
       </c>
-      <c r="M73">
+      <c r="L73" s="2">
+        <v>1000832</v>
+      </c>
+      <c r="M73" s="2">
         <v>1000832</v>
       </c>
     </row>
@@ -6520,10 +7726,19 @@
       <c r="H74" t="s">
         <v>100</v>
       </c>
-      <c r="L74">
+      <c r="I74" s="2">
+        <v>3583097</v>
+      </c>
+      <c r="J74" s="2">
+        <v>4081366</v>
+      </c>
+      <c r="K74" s="2">
+        <v>3603018</v>
+      </c>
+      <c r="L74" s="2">
         <v>3703018</v>
       </c>
-      <c r="M74">
+      <c r="M74" s="2">
         <v>3703018</v>
       </c>
     </row>
@@ -6531,10 +7746,19 @@
       <c r="H75" t="s">
         <v>93</v>
       </c>
-      <c r="L75">
+      <c r="I75" s="2">
+        <v>5254050</v>
+      </c>
+      <c r="J75" s="2">
+        <v>6405333</v>
+      </c>
+      <c r="K75" s="2">
+        <v>4026059</v>
+      </c>
+      <c r="L75" s="2">
         <v>4110712</v>
       </c>
-      <c r="M75">
+      <c r="M75" s="2">
         <v>4176884</v>
       </c>
     </row>
@@ -6542,39 +7766,46 @@
       <c r="H76" t="s">
         <v>104</v>
       </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
+      <c r="I76" s="2">
+        <v>40113603</v>
+      </c>
+      <c r="J76" s="2">
+        <v>49761885</v>
+      </c>
+      <c r="K76" s="2">
+        <v>41761700</v>
+      </c>
+      <c r="L76" s="2">
         <v>38038995</v>
       </c>
-      <c r="M76">
+      <c r="M76" s="2">
         <v>38437513</v>
       </c>
+    </row>
+    <row r="77" spans="8:13">
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
     </row>
     <row r="78" spans="8:13">
       <c r="H78" t="s">
         <v>102</v>
       </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
+      <c r="I78" s="2">
+        <v>215057773</v>
+      </c>
+      <c r="J78" s="2">
+        <v>243604205</v>
+      </c>
+      <c r="K78" s="2">
+        <v>212266607</v>
+      </c>
+      <c r="L78" s="2">
         <v>215849758</v>
       </c>
-      <c r="M78">
+      <c r="M78" s="2">
         <v>216317096</v>
       </c>
     </row>
